--- a/biology/Zoologie/Solenopsis_valida/Solenopsis_valida.xlsx
+++ b/biology/Zoologie/Solenopsis_valida/Solenopsis_valida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attopsis valida
 Solenopsis valida est une espèce fossile de fourmis piqueuses de la famille des Formicidae, de la sous-famille des Myrmicinae, de la tribu des Solenopsidini et du genre Solenopsis.
@@ -512,16 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Solenopsis valida est décrite en 1891 par le paléontologue et entomologiste allemand Bruno Förster (1852-1924) sous le protonyme Attopsis valida[1],[2]. 
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections fossiles référencées est de trois[2] :
-Oligocène inférieur ou Rupélien : deux collections de France, de Brunnstatt dans le département du Haut-Rhin en Alsace, décrites en 1891 par Bruno Förster[1] et une d'Allemagne, de Kleinkembs, en Bade-Wurtemberg, décrite en 1937 par Nicolas Théobald[3],[2].
-Renommage
-L'espèce Attopsis valida est renommée Solenopsis valida en 1937 par le paléontologue français Nicolas Théobald[3], renommage repris en 2012 par le myrmécologue anglais Barry Bolton [4].
-Étymologie
-L'épithète spécifique valida signifie en latin « fort ». 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Solenopsis valida est décrite en 1891 par le paléontologue et entomologiste allemand Bruno Förster (1852-1924) sous le protonyme Attopsis valida,. 
 </t>
         </is>
       </c>
@@ -547,25 +554,212 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de collections fossiles référencées est de trois :
+Oligocène inférieur ou Rupélien : deux collections de France, de Brunnstatt dans le département du Haut-Rhin en Alsace, décrites en 1891 par Bruno Förster et une d'Allemagne, de Kleinkembs, en Bade-Wurtemberg, décrite en 1937 par Nicolas Théobald,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Attopsis valida est renommée Solenopsis valida en 1937 par le paléontologue français Nicolas Théobald, renommage repris en 2012 par le myrmécologue anglais Barry Bolton .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique valida signifie en latin « fort ». 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald de 1937[3],[note 1] : Solenopsis valida ♀ pl. XIV, fig. 1 et 2
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diagnose de Nicolas Théobald de 1937,[note 1] : Solenopsis valida ♀ pl. XIV, fig. 1 et 2
 « Holotype : éch R663 Coll Mieg. Mus. Bâle, Kleinkembs
-Cotypes : R913, 58, 94, 143, 149, 184, 219, et 4b (empr. et c.-empr.), 233, 251, 359, 421, 449, 466, 474, 564,, 575, 717.
+Cotypes : R913, 58, 94, 143, 149, 184, 219, et 4b (empr. et c.-empr.), 233, 251, 359, 421, 449, 466, 474, 564 575, 717.
 Insecte de couleur brun-rouille.
-Tête arrondie ; deux yeux à facttes légèrement allongés ; vertex portant quelques poils et deux renflements (ocelles); antennes avec scape atteignant le milieu de la tête, funicule pluriarticulé. Cou étroit. Thorax ovale, se rétrécit à l'arrière. Pétiole formé de deux segments renflés. Abdomen ovoïde, quatre segements, porte des poils fins et allongés. Pattes grêles à fémur et tibia allongés. Ailes mal conservées. »[3].
+Tête arrondie ; deux yeux à facttes légèrement allongés ; vertex portant quelques poils et deux renflements (ocelles); antennes avec scape atteignant le milieu de la tête, funicule pluriarticulé. Cou étroit. Thorax ovale, se rétrécit à l'arrière. Pétiole formé de deux segments renflés. Abdomen ovoïde, quatre segements, porte des poils fins et allongés. Pattes grêles à fémur et tibia allongés. Ailes mal conservées. ».
 Solenopsis valida ♂ pl. XIV, fig. 3
 « Insecte de teinte brunâtre, la tête et le thorax étant de couleur plus foncée que l'abdomen.
 Mêmes caractères que S. maxima. Mais la tête plus petite, de forme plus arrondie ; abdomen plus allongé ; thorax moins large. On voit encore très nettement le pétiole avec ses deux articles renflés. les ailes sont tombées sur la plupart des échantillons, mais il reste encore les bases.
-Ont été figurés les échantillons R 595, 237. Appartiennt en outre à cette espèce : R 212, 641, 465, 248, 464, 430, 204, 677, 437, 379, 670, 548, 356, 501, 405 et 295, 583, 115. »[3].
-Dimensions
-Solenopsis valida ♀ pl. XIV, fig. 1 et 2 : La longueur totale est de 10 mm. La tête a une longueur de 1,3 mm et une largeur de 1,2 mm. Le thorax a une longueur de 4 mm et une largeur de 2,7 mm. Le pétiole a une longueur de 1 mm et une largeur de 0,6 mm. L'abdomen a une longueur de 3,2 mm et une largeur de 2,5 mm[3].
-Affinités
-« Semble appartenir à la même espèce qu'Attopsis valida, dont Förster a décrit une ♀ femelle. Solenopsis maxima et Solenopsis valida sont d'ailleurs très voisines, sinon identiques. »[3].
+Ont été figurés les échantillons R 595, 237. Appartiennt en outre à cette espèce : R 212, 641, 465, 248, 464, 430, 204, 677, 437, 379, 670, 548, 356, 501, 405 et 295, 583, 115. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solenopsis valida ♀ pl. XIV, fig. 1 et 2 : La longueur totale est de 10 mm. La tête a une longueur de 1,3 mm et une largeur de 1,2 mm. Le thorax a une longueur de 4 mm et une largeur de 2,7 mm. Le pétiole a une longueur de 1 mm et une largeur de 0,6 mm. L'abdomen a une longueur de 3,2 mm et une largeur de 2,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_valida</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Semble appartenir à la même espèce qu'Attopsis valida, dont Förster a décrit une ♀ femelle. Solenopsis maxima et Solenopsis valida sont d'ailleurs très voisines, sinon identiques. ».
 </t>
         </is>
       </c>
